--- a/paper/fse21/img/data.xlsx
+++ b/paper/fse21/img/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yundongjun/PLRG/safe/paper/fse21/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608C518-4CAC-A04C-994B-B17885014D49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865CBC8D-E0D0-9F4A-82ED-F1006730B7A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{79116AAD-ED92-2E4A-B23C-5F53B2DA7354}"/>
   </bookViews>
